--- a/Disaster Recovery as a Service - Business model - v1.0.xlsx
+++ b/Disaster Recovery as a Service - Business model - v1.0.xlsx
@@ -583,7 +583,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -670,13 +670,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -8603,8 +8604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8639,13 +8640,13 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
@@ -8771,13 +8772,13 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="4"/>
@@ -8971,13 +8972,13 @@
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
@@ -9012,13 +9013,13 @@
       <c r="B36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9074,9 +9075,9 @@
       <c r="B40" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="5">
+      <c r="C40" s="68"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71">
         <f>208.32/$C$10</f>
         <v>17.36</v>
       </c>
@@ -9085,9 +9086,9 @@
       <c r="B41" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="5">
+      <c r="C41" s="68"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71">
         <f>E35*price_list!$K$3/C10</f>
         <v>2</v>
       </c>
@@ -9096,12 +9097,12 @@
       <c r="B42" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="5">
+      <c r="C42" s="68"/>
+      <c r="D42" s="71">
         <f>0.087*(D35-5)/$C$10</f>
         <v>3.5887499999999997</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="71">
         <f>0.087*(E35-5)/$C$10</f>
         <v>7.2137500000000001</v>
       </c>
@@ -9525,15 +9526,15 @@
         <v>41</v>
       </c>
       <c r="C68" s="8">
-        <f>$C60*C$66</f>
+        <f t="shared" ref="C68:E70" si="3">$C60*C$66</f>
         <v>4</v>
       </c>
       <c r="D68" s="8">
-        <f>$C60*D$66</f>
+        <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
       <c r="E68" s="8">
-        <f>$C60*E$66</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
       <c r="G68" s="3"/>
@@ -9549,15 +9550,15 @@
         <v>42</v>
       </c>
       <c r="C69" s="8">
-        <f>$C61*C$66</f>
+        <f t="shared" si="3"/>
         <v>10.147187499999999</v>
       </c>
       <c r="D69" s="8">
-        <f>$C61*D$66</f>
+        <f t="shared" si="3"/>
         <v>14.206062499999998</v>
       </c>
       <c r="E69" s="8">
-        <f>$C61*E$66</f>
+        <f t="shared" si="3"/>
         <v>18.264937499999998</v>
       </c>
       <c r="K69" s="12"/>
@@ -9568,15 +9569,15 @@
         <v>43</v>
       </c>
       <c r="C70" s="8">
-        <f>$C62*C$66</f>
+        <f t="shared" si="3"/>
         <v>24.893437500000001</v>
       </c>
       <c r="D70" s="8">
-        <f>$C62*D$66</f>
+        <f t="shared" si="3"/>
         <v>34.850812499999996</v>
       </c>
       <c r="E70" s="8">
-        <f>$C62*E$66</f>
+        <f t="shared" si="3"/>
         <v>44.808187500000003</v>
       </c>
       <c r="K70" s="16"/>
@@ -9666,13 +9667,13 @@
       <c r="K77" s="34"/>
     </row>
     <row r="78" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="68" t="s">
+      <c r="B78" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="68"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
       <c r="K78" s="34"/>
     </row>
     <row r="79" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -9780,13 +9781,13 @@
       <c r="K88" s="34"/>
     </row>
     <row r="89" spans="2:11" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
       <c r="K89" s="34"/>
     </row>
     <row r="90" spans="2:11" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -9848,7 +9849,7 @@
         <v>500</v>
       </c>
       <c r="F94" s="61">
-        <f t="shared" ref="F94:F96" si="3">SUM(C94:E94)</f>
+        <f t="shared" ref="F94:F96" si="4">SUM(C94:E94)</f>
         <v>1000</v>
       </c>
       <c r="K94" s="34"/>
@@ -9865,7 +9866,7 @@
         <v>500</v>
       </c>
       <c r="F95" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="K95" s="34"/>
@@ -9882,7 +9883,7 @@
         <v>500</v>
       </c>
       <c r="F96" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="K96" s="34"/>
@@ -9901,14 +9902,14 @@
       <c r="F98" s="55"/>
       <c r="G98" s="55"/>
       <c r="H98" s="55"/>
-      <c r="I98" s="69" t="s">
+      <c r="I98" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="J98" s="69"/>
-      <c r="K98" s="69"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="69"/>
-      <c r="N98" s="69"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="70"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="70"/>
+      <c r="N98" s="70"/>
       <c r="O98" s="67" t="s">
         <v>104</v>
       </c>
@@ -9921,28 +9922,28 @@
       <c r="V98" s="67"/>
       <c r="W98" s="67"/>
       <c r="X98" s="67"/>
-      <c r="Z98" s="68" t="s">
+      <c r="Z98" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="AA98" s="68"/>
-      <c r="AB98" s="68"/>
-      <c r="AC98" s="68"/>
-      <c r="AD98" s="68"/>
-      <c r="AE98" s="68"/>
-      <c r="AF98" s="68"/>
-      <c r="AG98" s="68"/>
-      <c r="AH98" s="68"/>
-      <c r="AI98" s="69" t="s">
+      <c r="AA98" s="69"/>
+      <c r="AB98" s="69"/>
+      <c r="AC98" s="69"/>
+      <c r="AD98" s="69"/>
+      <c r="AE98" s="69"/>
+      <c r="AF98" s="69"/>
+      <c r="AG98" s="69"/>
+      <c r="AH98" s="69"/>
+      <c r="AI98" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="AJ98" s="69"/>
-      <c r="AK98" s="69"/>
-      <c r="AL98" s="69"/>
-      <c r="AM98" s="69"/>
-      <c r="AN98" s="69"/>
-      <c r="AO98" s="69"/>
-      <c r="AP98" s="69"/>
-      <c r="AQ98" s="69"/>
+      <c r="AJ98" s="70"/>
+      <c r="AK98" s="70"/>
+      <c r="AL98" s="70"/>
+      <c r="AM98" s="70"/>
+      <c r="AN98" s="70"/>
+      <c r="AO98" s="70"/>
+      <c r="AP98" s="70"/>
+      <c r="AQ98" s="70"/>
     </row>
     <row r="99" spans="2:43" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B99" s="31"/>
@@ -10072,38 +10073,38 @@
     </row>
     <row r="100" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B100" s="4" t="str">
-        <f t="shared" ref="B100:B112" si="4">IF($C$8=C100,$B$8,IF($C$9=C100,$B$9,""))</f>
+        <f t="shared" ref="B100:B112" si="5">IF($C$8=C100,$B$8,IF($C$9=C100,$B$9,""))</f>
         <v/>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" s="3">
-        <f t="shared" ref="D100:D112" si="5">IF($C$8=C100,$C$6,IF(C100&lt;$C$8,0,IF($C$9&lt;C100,$C$7,$C$6*(1+$C$12)^(C100-$C$8))))</f>
+        <f t="shared" ref="D100:D112" si="6">IF($C$8=C100,$C$6,IF(C100&lt;$C$8,0,IF($C$9&lt;C100,$C$7,$C$6*(1+$C$12)^(C100-$C$8))))</f>
         <v>0</v>
       </c>
       <c r="E100" s="2">
-        <f>D100/$C$54</f>
+        <f t="shared" ref="E100:E112" si="7">D100/$C$54</f>
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <f>E100*$C$55</f>
+        <f t="shared" ref="F100:F112" si="8">E100*$C$55</f>
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <f>E100*$C$74</f>
+        <f t="shared" ref="G100:G112" si="9">E100*$C$74</f>
         <v>0</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" ref="H100:H112" si="6">F100+G100</f>
+        <f t="shared" ref="H100:H112" si="10">F100+G100</f>
         <v>0</v>
       </c>
       <c r="I100" s="12">
-        <f>E100*$C$56</f>
+        <f t="shared" ref="I100:I112" si="11">E100*$C$56</f>
         <v>0</v>
       </c>
       <c r="J100" s="12">
-        <f>E100*$C$75</f>
+        <f t="shared" ref="J100:J112" si="12">E100*$C$75</f>
         <v>0</v>
       </c>
       <c r="K100" s="12">
@@ -10115,22 +10116,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M100" s="12">
-        <f t="shared" ref="M100:M112" si="7">G100-J100</f>
+        <f t="shared" ref="M100:M112" si="13">G100-J100</f>
         <v>0</v>
       </c>
       <c r="N100" s="12">
-        <f t="shared" ref="N100:N112" si="8">D100+M100</f>
+        <f t="shared" ref="N100:N112" si="14">D100+M100</f>
         <v>0</v>
       </c>
       <c r="O100" s="2">
         <v>0</v>
       </c>
       <c r="P100" s="24">
-        <f t="shared" ref="P100:P112" si="9">(O100*$C$82)/$C$81</f>
+        <f t="shared" ref="P100:P112" si="15">(O100*$C$82)/$C$81</f>
         <v>0</v>
       </c>
       <c r="Q100" s="24">
-        <f t="shared" ref="Q100:Q112" si="10">(E100*$C$83*$C$84)/$C$81</f>
+        <f t="shared" ref="Q100:Q112" si="16">(E100*$C$83*$C$84)/$C$81</f>
         <v>0</v>
       </c>
       <c r="R100" s="56">
@@ -10149,15 +10150,15 @@
         <v>0</v>
       </c>
       <c r="V100" s="12">
-        <f t="shared" ref="V100:V112" si="11">D100+T100+U100</f>
+        <f t="shared" ref="V100:V112" si="17">D100+T100+U100</f>
         <v>0</v>
       </c>
       <c r="W100" s="12">
-        <f t="shared" ref="W100:W112" si="12">H100-V100</f>
+        <f t="shared" ref="W100:W112" si="18">H100-V100</f>
         <v>0</v>
       </c>
       <c r="X100" s="6" t="e">
-        <f t="shared" ref="X100:X112" si="13">W100/H100</f>
+        <f t="shared" ref="X100:X112" si="19">W100/H100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y100" s="12">
@@ -10165,7 +10166,7 @@
         <v>1000</v>
       </c>
       <c r="Z100" s="12">
-        <f t="shared" ref="Z100:Z112" si="14">H100-N100-Y100</f>
+        <f t="shared" ref="Z100:Z112" si="20">H100-N100-Y100</f>
         <v>-1000</v>
       </c>
       <c r="AA100" s="12">
@@ -10193,7 +10194,7 @@
         <v>-1000</v>
       </c>
       <c r="AI100" s="12">
-        <f t="shared" ref="AI100:AI112" si="15">H100-V100-Y100</f>
+        <f t="shared" ref="AI100:AI112" si="21">H100-V100-Y100</f>
         <v>-1000</v>
       </c>
       <c r="AJ100" s="12">
@@ -10223,114 +10224,114 @@
     </row>
     <row r="101" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B101" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
-        <f>D101/$C$54</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <f>E101*$C$55</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <f>E101*$C$74</f>
-        <v>0</v>
-      </c>
-      <c r="H101" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I101" s="12">
-        <f>E101*$C$56</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="12">
-        <f>E101*$C$75</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="12">
-        <f t="shared" ref="K101:K112" si="16">I101+J101</f>
-        <v>0</v>
-      </c>
-      <c r="L101" s="6" t="e">
-        <f t="shared" ref="L101:L112" si="17">K101/H101</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M101" s="12">
+      <c r="E101" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N101" s="12">
+      <c r="F101" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O101" s="2">
-        <f t="shared" ref="O101:O112" si="18">E101-E100</f>
-        <v>0</v>
-      </c>
-      <c r="P101" s="24">
+      <c r="G101" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q101" s="24">
+      <c r="H101" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="I101" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="12">
+        <f t="shared" ref="K101:K112" si="22">I101+J101</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="6" t="e">
+        <f t="shared" ref="L101:L112" si="23">K101/H101</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M101" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="2">
+        <f t="shared" ref="O101:O112" si="24">E101-E100</f>
+        <v>0</v>
+      </c>
+      <c r="P101" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="R101" s="56">
-        <f t="shared" ref="R101:R112" si="19">ROUNDUP(P101,0)</f>
+        <f t="shared" ref="R101:R112" si="25">ROUNDUP(P101,0)</f>
         <v>0</v>
       </c>
       <c r="S101" s="56">
-        <f t="shared" ref="S101:S112" si="20">ROUNDUP(Q101,0)</f>
+        <f t="shared" ref="S101:S112" si="26">ROUNDUP(Q101,0)</f>
         <v>0</v>
       </c>
       <c r="T101" s="3">
-        <f t="shared" ref="T101:T112" si="21">R101*$C$85+S101*$C$86</f>
+        <f t="shared" ref="T101:T112" si="27">R101*$C$85+S101*$C$86</f>
         <v>0</v>
       </c>
       <c r="U101" s="3">
-        <f t="shared" ref="U101:U112" si="22">$C$87</f>
+        <f t="shared" ref="U101:U112" si="28">$C$87</f>
         <v>500</v>
       </c>
       <c r="V101" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="W101" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-500</v>
       </c>
       <c r="X101" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y101" s="12">
-        <f t="shared" ref="Y101:Y103" si="23">F94</f>
+        <f t="shared" ref="Y101:Y103" si="29">F94</f>
         <v>1000</v>
       </c>
       <c r="Z101" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-1000</v>
       </c>
       <c r="AA101" s="12">
-        <f t="shared" ref="AA101:AA112" si="24">Z101+AA100</f>
+        <f t="shared" ref="AA101:AA112" si="30">Z101+AA100</f>
         <v>-2000</v>
       </c>
       <c r="AB101" t="str">
-        <f t="shared" ref="AB101:AB112" si="25">IF(AND(Z100&lt;0,Z101&gt;=0),"breakeven","")</f>
+        <f t="shared" ref="AB101:AB112" si="31">IF(AND(Z100&lt;0,Z101&gt;=0),"breakeven","")</f>
         <v/>
       </c>
       <c r="AC101" t="str">
-        <f t="shared" ref="AC101:AC112" si="26">IF(AND(AA100&lt;0,AA101&gt;=0),"payback","")</f>
+        <f t="shared" ref="AC101:AC112" si="32">IF(AND(AA100&lt;0,AA101&gt;=0),"payback","")</f>
         <v/>
       </c>
       <c r="AD101" s="3">
@@ -10354,11 +10355,11 @@
         <v>-2000</v>
       </c>
       <c r="AI101" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-1500</v>
       </c>
       <c r="AJ101" s="12">
-        <f t="shared" ref="AJ101:AJ112" si="27">AI101+AJ100</f>
+        <f t="shared" ref="AJ101:AJ112" si="33">AI101+AJ100</f>
         <v>-2500</v>
       </c>
       <c r="AK101" t="str">
@@ -10392,114 +10393,114 @@
     </row>
     <row r="102" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B102" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <f>D102/$C$54</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <f>E102*$C$55</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <f>E102*$C$74</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="E102" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="I102" s="12">
-        <f>E102*$C$56</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J102" s="12">
-        <f>E102*$C$75</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K102" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M102" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="24">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L102" s="6" t="e">
+      <c r="R102" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="56">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V102" s="12">
         <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="W102" s="12">
+        <f t="shared" si="18"/>
+        <v>-500</v>
+      </c>
+      <c r="X102" s="6" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M102" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O102" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P102" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q102" s="24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="56">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S102" s="56">
+      <c r="Y102" s="12">
+        <f t="shared" si="29"/>
+        <v>1000</v>
+      </c>
+      <c r="Z102" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V102" s="12">
-        <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-      <c r="W102" s="12">
-        <f t="shared" si="12"/>
-        <v>-500</v>
-      </c>
-      <c r="X102" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y102" s="12">
-        <f t="shared" si="23"/>
-        <v>1000</v>
-      </c>
-      <c r="Z102" s="12">
-        <f t="shared" si="14"/>
         <v>-1000</v>
       </c>
       <c r="AA102" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-3000</v>
       </c>
       <c r="AB102" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC102" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD102" s="3">
@@ -10523,19 +10524,19 @@
         <v>-3000</v>
       </c>
       <c r="AI102" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-1500</v>
       </c>
       <c r="AJ102" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-4000</v>
       </c>
       <c r="AK102" t="str">
-        <f t="shared" ref="AK102:AK112" si="28">IF(AND(AI101&lt;0,AI102&gt;=0),"breakeven","")</f>
+        <f t="shared" ref="AK102:AK112" si="34">IF(AND(AI101&lt;0,AI102&gt;=0),"breakeven","")</f>
         <v/>
       </c>
       <c r="AL102" t="str">
-        <f t="shared" ref="AL102:AL112" si="29">IF(AND(AJ101&lt;0,AJ102&gt;=0),"payback","")</f>
+        <f t="shared" ref="AL102:AL112" si="35">IF(AND(AJ101&lt;0,AJ102&gt;=0),"payback","")</f>
         <v/>
       </c>
       <c r="AM102" s="3">
@@ -10561,114 +10562,114 @@
     </row>
     <row r="103" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B103" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <f>D103/$C$54</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
-        <f>E103*$C$55</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="3">
-        <f>E103*$C$74</f>
-        <v>0</v>
-      </c>
-      <c r="H103" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="E103" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="I103" s="12">
-        <f>E103*$C$56</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J103" s="12">
-        <f>E103*$C$75</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K103" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M103" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="24">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L103" s="6" t="e">
+      <c r="R103" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S103" s="56">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T103" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V103" s="12">
         <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="W103" s="12">
+        <f t="shared" si="18"/>
+        <v>-500</v>
+      </c>
+      <c r="X103" s="6" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M103" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N103" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O103" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P103" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q103" s="24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R103" s="56">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S103" s="56">
+      <c r="Y103" s="12">
+        <f t="shared" si="29"/>
+        <v>1000</v>
+      </c>
+      <c r="Z103" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T103" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U103" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V103" s="12">
-        <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-      <c r="W103" s="12">
-        <f t="shared" si="12"/>
-        <v>-500</v>
-      </c>
-      <c r="X103" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y103" s="12">
-        <f t="shared" si="23"/>
-        <v>1000</v>
-      </c>
-      <c r="Z103" s="12">
-        <f t="shared" si="14"/>
         <v>-1000</v>
       </c>
       <c r="AA103" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-4000</v>
       </c>
       <c r="AB103" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC103" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD103" s="3">
@@ -10692,19 +10693,19 @@
         <v>-4000</v>
       </c>
       <c r="AI103" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-1500</v>
       </c>
       <c r="AJ103" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-5500</v>
       </c>
       <c r="AK103" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AL103" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AM103" s="3">
@@ -10730,111 +10731,111 @@
     </row>
     <row r="104" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B104" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>initial month of growth</v>
       </c>
       <c r="C104">
         <v>4</v>
       </c>
       <c r="D104" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E104" s="2">
-        <f>D104/$C$54</f>
+        <f t="shared" si="7"/>
         <v>45.03572853228448</v>
       </c>
       <c r="F104" s="3">
-        <f>E104*$C$55</f>
+        <f t="shared" si="8"/>
         <v>1470.5882352941176</v>
       </c>
       <c r="G104" s="3">
-        <f>E104*$C$74</f>
+        <f t="shared" si="9"/>
         <v>944.85294117647038</v>
       </c>
       <c r="H104" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2415.4411764705878</v>
       </c>
       <c r="I104" s="12">
-        <f>E104*$C$56</f>
+        <f t="shared" si="11"/>
         <v>470.58823529411768</v>
       </c>
       <c r="J104" s="12">
-        <f>E104*$C$75</f>
+        <f t="shared" si="12"/>
         <v>443.93382352941171</v>
       </c>
       <c r="K104" s="12">
+        <f t="shared" si="22"/>
+        <v>914.52205882352939</v>
+      </c>
+      <c r="L104" s="6">
+        <f t="shared" si="23"/>
+        <v>0.37861491628614924</v>
+      </c>
+      <c r="M104" s="12">
+        <f t="shared" si="13"/>
+        <v>500.91911764705867</v>
+      </c>
+      <c r="N104" s="12">
+        <f t="shared" si="14"/>
+        <v>1500.9191176470586</v>
+      </c>
+      <c r="O104" s="2">
+        <f t="shared" si="24"/>
+        <v>45.03572853228448</v>
+      </c>
+      <c r="P104" s="24">
+        <f t="shared" si="15"/>
+        <v>4.5035728532284477E-2</v>
+      </c>
+      <c r="Q104" s="24">
         <f t="shared" si="16"/>
-        <v>914.52205882352939</v>
-      </c>
-      <c r="L104" s="6">
+        <v>1.1258932133071119E-2</v>
+      </c>
+      <c r="R104" s="56">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S104" s="56">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T104" s="3">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="U104" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V104" s="12">
         <f t="shared" si="17"/>
-        <v>0.37861491628614924</v>
-      </c>
-      <c r="M104" s="12">
-        <f t="shared" si="7"/>
-        <v>500.91911764705867</v>
-      </c>
-      <c r="N104" s="12">
-        <f t="shared" si="8"/>
-        <v>1500.9191176470586</v>
-      </c>
-      <c r="O104" s="2">
+        <v>4000</v>
+      </c>
+      <c r="W104" s="12">
         <f t="shared" si="18"/>
-        <v>45.03572853228448</v>
-      </c>
-      <c r="P104" s="24">
-        <f t="shared" si="9"/>
-        <v>4.5035728532284477E-2</v>
-      </c>
-      <c r="Q104" s="24">
-        <f t="shared" si="10"/>
-        <v>1.1258932133071119E-2</v>
-      </c>
-      <c r="R104" s="56">
+        <v>-1584.5588235294122</v>
+      </c>
+      <c r="X104" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S104" s="56">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T104" s="3">
-        <f t="shared" si="21"/>
-        <v>2500</v>
-      </c>
-      <c r="U104" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V104" s="12">
-        <f t="shared" si="11"/>
-        <v>4000</v>
-      </c>
-      <c r="W104" s="12">
-        <f t="shared" si="12"/>
-        <v>-1584.5588235294122</v>
-      </c>
-      <c r="X104" s="6">
-        <f t="shared" si="13"/>
         <v>-0.65601217656012201</v>
       </c>
       <c r="Y104" s="12"/>
       <c r="Z104" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>914.52205882352928</v>
       </c>
       <c r="AA104" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-3085.4779411764707</v>
       </c>
       <c r="AB104" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>breakeven</v>
       </c>
       <c r="AC104" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD104" s="3">
@@ -10858,19 +10859,19 @@
         <v>-4000</v>
       </c>
       <c r="AI104" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-1584.5588235294122</v>
       </c>
       <c r="AJ104" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-7084.5588235294126</v>
       </c>
       <c r="AK104" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AL104" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AM104" s="3">
@@ -10896,111 +10897,111 @@
     </row>
     <row r="105" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B105" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C105">
         <v>5</v>
       </c>
       <c r="D105" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1333.5214321633239</v>
       </c>
       <c r="E105" s="2">
-        <f>D105/$C$54</f>
+        <f t="shared" si="7"/>
         <v>60.056109210890668</v>
       </c>
       <c r="F105" s="3">
-        <f>E105*$C$55</f>
+        <f t="shared" si="8"/>
         <v>1961.0609296519469</v>
       </c>
       <c r="G105" s="3">
-        <f>E105*$C$74</f>
+        <f t="shared" si="9"/>
         <v>1259.9816473013757</v>
       </c>
       <c r="H105" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3221.0425769533226</v>
       </c>
       <c r="I105" s="12">
-        <f>E105*$C$56</f>
+        <f t="shared" si="11"/>
         <v>627.53949748862306</v>
       </c>
       <c r="J105" s="12">
-        <f>E105*$C$75</f>
+        <f t="shared" si="12"/>
         <v>591.99526813868147</v>
       </c>
       <c r="K105" s="12">
+        <f t="shared" si="22"/>
+        <v>1219.5347656273045</v>
+      </c>
+      <c r="L105" s="6">
+        <f t="shared" si="23"/>
+        <v>0.37861491628614918</v>
+      </c>
+      <c r="M105" s="12">
+        <f t="shared" si="13"/>
+        <v>667.98637916269422</v>
+      </c>
+      <c r="N105" s="12">
+        <f t="shared" si="14"/>
+        <v>2001.5078113260181</v>
+      </c>
+      <c r="O105" s="2">
+        <f t="shared" si="24"/>
+        <v>15.020380678606188</v>
+      </c>
+      <c r="P105" s="24">
+        <f t="shared" si="15"/>
+        <v>1.5020380678606187E-2</v>
+      </c>
+      <c r="Q105" s="24">
         <f t="shared" si="16"/>
-        <v>1219.5347656273045</v>
-      </c>
-      <c r="L105" s="6">
+        <v>1.5014027302722667E-2</v>
+      </c>
+      <c r="R105" s="56">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S105" s="56">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T105" s="3">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="U105" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V105" s="12">
         <f t="shared" si="17"/>
-        <v>0.37861491628614918</v>
-      </c>
-      <c r="M105" s="12">
-        <f t="shared" si="7"/>
-        <v>667.98637916269422</v>
-      </c>
-      <c r="N105" s="12">
-        <f t="shared" si="8"/>
-        <v>2001.5078113260181</v>
-      </c>
-      <c r="O105" s="2">
+        <v>4333.5214321633239</v>
+      </c>
+      <c r="W105" s="12">
         <f t="shared" si="18"/>
-        <v>15.020380678606188</v>
-      </c>
-      <c r="P105" s="24">
-        <f t="shared" si="9"/>
-        <v>1.5020380678606187E-2</v>
-      </c>
-      <c r="Q105" s="24">
-        <f t="shared" si="10"/>
-        <v>1.5014027302722667E-2</v>
-      </c>
-      <c r="R105" s="56">
+        <v>-1112.4788552100013</v>
+      </c>
+      <c r="X105" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S105" s="56">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T105" s="3">
-        <f t="shared" si="21"/>
-        <v>2500</v>
-      </c>
-      <c r="U105" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V105" s="12">
-        <f t="shared" si="11"/>
-        <v>4333.5214321633239</v>
-      </c>
-      <c r="W105" s="12">
-        <f t="shared" si="12"/>
-        <v>-1112.4788552100013</v>
-      </c>
-      <c r="X105" s="6">
-        <f t="shared" si="13"/>
         <v>-0.34537850047988439</v>
       </c>
       <c r="Y105" s="12"/>
       <c r="Z105" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1219.5347656273045</v>
       </c>
       <c r="AA105" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-1865.9431755491662</v>
       </c>
       <c r="AB105" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC105" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD105" s="3">
@@ -11024,19 +11025,19 @@
         <v>-4000</v>
       </c>
       <c r="AI105" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-1112.4788552100013</v>
       </c>
       <c r="AJ105" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-8197.0376787394143</v>
       </c>
       <c r="AK105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AL105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AM105" s="3">
@@ -11062,111 +11063,111 @@
     </row>
     <row r="106" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B106" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C106">
         <v>6</v>
       </c>
       <c r="D106" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1778.2794100389228</v>
       </c>
       <c r="E106" s="2">
-        <f>D106/$C$54</f>
+        <f t="shared" si="7"/>
         <v>80.086108765063926</v>
       </c>
       <c r="F106" s="3">
-        <f>E106*$C$55</f>
+        <f t="shared" si="8"/>
         <v>2615.1167794690041</v>
       </c>
       <c r="G106" s="3">
-        <f>E106*$C$74</f>
+        <f t="shared" si="9"/>
         <v>1680.2125308088348</v>
       </c>
       <c r="H106" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4295.3293102778389</v>
       </c>
       <c r="I106" s="12">
-        <f>E106*$C$56</f>
+        <f t="shared" si="11"/>
         <v>836.83736943008137</v>
       </c>
       <c r="J106" s="12">
-        <f>E106*$C$75</f>
+        <f t="shared" si="12"/>
         <v>789.43837780220554</v>
       </c>
       <c r="K106" s="12">
+        <f t="shared" si="22"/>
+        <v>1626.2757472322869</v>
+      </c>
+      <c r="L106" s="6">
+        <f t="shared" si="23"/>
+        <v>0.37861491628614918</v>
+      </c>
+      <c r="M106" s="12">
+        <f t="shared" si="13"/>
+        <v>890.77415300662926</v>
+      </c>
+      <c r="N106" s="12">
+        <f t="shared" si="14"/>
+        <v>2669.053563045552</v>
+      </c>
+      <c r="O106" s="2">
+        <f t="shared" si="24"/>
+        <v>20.029999554173259</v>
+      </c>
+      <c r="P106" s="24">
+        <f t="shared" si="15"/>
+        <v>2.0029999554173259E-2</v>
+      </c>
+      <c r="Q106" s="24">
         <f t="shared" si="16"/>
-        <v>1626.2757472322869</v>
-      </c>
-      <c r="L106" s="6">
+        <v>2.0021527191265983E-2</v>
+      </c>
+      <c r="R106" s="56">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S106" s="56">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T106" s="3">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="U106" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V106" s="12">
         <f t="shared" si="17"/>
-        <v>0.37861491628614918</v>
-      </c>
-      <c r="M106" s="12">
-        <f t="shared" si="7"/>
-        <v>890.77415300662926</v>
-      </c>
-      <c r="N106" s="12">
-        <f t="shared" si="8"/>
-        <v>2669.053563045552</v>
-      </c>
-      <c r="O106" s="2">
+        <v>4778.2794100389228</v>
+      </c>
+      <c r="W106" s="12">
         <f t="shared" si="18"/>
-        <v>20.029999554173259</v>
-      </c>
-      <c r="P106" s="24">
-        <f t="shared" si="9"/>
-        <v>2.0029999554173259E-2</v>
-      </c>
-      <c r="Q106" s="24">
-        <f t="shared" si="10"/>
-        <v>2.0021527191265983E-2</v>
-      </c>
-      <c r="R106" s="56">
+        <v>-482.95009976108395</v>
+      </c>
+      <c r="X106" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S106" s="56">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T106" s="3">
-        <f t="shared" si="21"/>
-        <v>2500</v>
-      </c>
-      <c r="U106" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V106" s="12">
-        <f t="shared" si="11"/>
-        <v>4778.2794100389228</v>
-      </c>
-      <c r="W106" s="12">
-        <f t="shared" si="12"/>
-        <v>-482.95009976108395</v>
-      </c>
-      <c r="X106" s="6">
-        <f t="shared" si="13"/>
         <v>-0.11243610556366046</v>
       </c>
       <c r="Y106" s="12"/>
       <c r="Z106" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1626.2757472322869</v>
       </c>
       <c r="AA106" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-239.6674283168793</v>
       </c>
       <c r="AB106" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC106" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD106" s="3">
@@ -11190,19 +11191,19 @@
         <v>-4000</v>
       </c>
       <c r="AI106" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-482.95009976108395</v>
       </c>
       <c r="AJ106" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-8679.9877785004974</v>
       </c>
       <c r="AK106" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AL106" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AM106" s="3">
@@ -11228,111 +11229,111 @@
     </row>
     <row r="107" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B107" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C107">
         <v>7</v>
       </c>
       <c r="D107" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2371.3737056616551</v>
       </c>
       <c r="E107" s="2">
-        <f>D107/$C$54</f>
+        <f t="shared" si="7"/>
         <v>106.79654245677578</v>
       </c>
       <c r="F107" s="3">
-        <f>E107*$C$55</f>
+        <f t="shared" si="8"/>
         <v>3487.3142730318459</v>
       </c>
       <c r="G107" s="3">
-        <f>E107*$C$74</f>
+        <f t="shared" si="9"/>
         <v>2240.5994204229605</v>
       </c>
       <c r="H107" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5727.913693454806</v>
       </c>
       <c r="I107" s="12">
-        <f>E107*$C$56</f>
+        <f t="shared" si="11"/>
         <v>1115.9405673701906</v>
       </c>
       <c r="J107" s="12">
-        <f>E107*$C$75</f>
+        <f t="shared" si="12"/>
         <v>1052.7329961714884</v>
       </c>
       <c r="K107" s="12">
+        <f t="shared" si="22"/>
+        <v>2168.673563541679</v>
+      </c>
+      <c r="L107" s="6">
+        <f t="shared" si="23"/>
+        <v>0.37861491628614918</v>
+      </c>
+      <c r="M107" s="12">
+        <f t="shared" si="13"/>
+        <v>1187.8664242514722</v>
+      </c>
+      <c r="N107" s="12">
+        <f t="shared" si="14"/>
+        <v>3559.240129913127</v>
+      </c>
+      <c r="O107" s="2">
+        <f t="shared" si="24"/>
+        <v>26.710433691711856</v>
+      </c>
+      <c r="P107" s="24">
+        <f t="shared" si="15"/>
+        <v>2.6710433691711853E-2</v>
+      </c>
+      <c r="Q107" s="24">
         <f t="shared" si="16"/>
-        <v>2168.673563541679</v>
-      </c>
-      <c r="L107" s="6">
+        <v>2.6699135614193945E-2</v>
+      </c>
+      <c r="R107" s="56">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S107" s="56">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T107" s="3">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="U107" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V107" s="12">
         <f t="shared" si="17"/>
-        <v>0.37861491628614918</v>
-      </c>
-      <c r="M107" s="12">
-        <f t="shared" si="7"/>
-        <v>1187.8664242514722</v>
-      </c>
-      <c r="N107" s="12">
-        <f t="shared" si="8"/>
-        <v>3559.240129913127</v>
-      </c>
-      <c r="O107" s="2">
+        <v>5371.3737056616555</v>
+      </c>
+      <c r="W107" s="12">
         <f t="shared" si="18"/>
-        <v>26.710433691711856</v>
-      </c>
-      <c r="P107" s="24">
-        <f t="shared" si="9"/>
-        <v>2.6710433691711853E-2</v>
-      </c>
-      <c r="Q107" s="24">
-        <f t="shared" si="10"/>
-        <v>2.6699135614193945E-2</v>
-      </c>
-      <c r="R107" s="56">
+        <v>356.53998779315043</v>
+      </c>
+      <c r="X107" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S107" s="56">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T107" s="3">
-        <f t="shared" si="21"/>
-        <v>2500</v>
-      </c>
-      <c r="U107" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V107" s="12">
-        <f t="shared" si="11"/>
-        <v>5371.3737056616555</v>
-      </c>
-      <c r="W107" s="12">
-        <f t="shared" si="12"/>
-        <v>356.53998779315043</v>
-      </c>
-      <c r="X107" s="6">
-        <f t="shared" si="13"/>
         <v>6.2246047492049837E-2</v>
       </c>
       <c r="Y107" s="12"/>
       <c r="Z107" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2168.673563541679</v>
       </c>
       <c r="AA107" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1929.0061352247997</v>
       </c>
       <c r="AB107" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC107" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>payback</v>
       </c>
       <c r="AD107" s="3">
@@ -11356,19 +11357,19 @@
         <v>-4000</v>
       </c>
       <c r="AI107" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>356.53998779315043</v>
       </c>
       <c r="AJ107" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-8323.4477907073469</v>
       </c>
       <c r="AK107" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>breakeven</v>
       </c>
       <c r="AL107" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AM107" s="3">
@@ -11394,111 +11395,111 @@
     </row>
     <row r="108" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B108" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C108">
         <v>8</v>
       </c>
       <c r="D108" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3162.277660168379</v>
       </c>
       <c r="E108" s="2">
-        <f>D108/$C$54</f>
+        <f t="shared" si="7"/>
         <v>142.41547824705088</v>
       </c>
       <c r="F108" s="3">
-        <f>E108*$C$55</f>
+        <f t="shared" si="8"/>
         <v>4650.4083237770283</v>
       </c>
       <c r="G108" s="3">
-        <f>E108*$C$74</f>
+        <f t="shared" si="9"/>
         <v>2987.8873480267403</v>
       </c>
       <c r="H108" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7638.2956718037685</v>
       </c>
       <c r="I108" s="12">
-        <f>E108*$C$56</f>
+        <f t="shared" si="11"/>
         <v>1488.130663608649</v>
       </c>
       <c r="J108" s="12">
-        <f>E108*$C$75</f>
+        <f t="shared" si="12"/>
         <v>1403.8420127401903</v>
       </c>
       <c r="K108" s="12">
+        <f t="shared" si="22"/>
+        <v>2891.9726763488393</v>
+      </c>
+      <c r="L108" s="6">
+        <f t="shared" si="23"/>
+        <v>0.37861491628614918</v>
+      </c>
+      <c r="M108" s="12">
+        <f t="shared" si="13"/>
+        <v>1584.04533528655</v>
+      </c>
+      <c r="N108" s="12">
+        <f t="shared" si="14"/>
+        <v>4746.3229954549288</v>
+      </c>
+      <c r="O108" s="2">
+        <f t="shared" si="24"/>
+        <v>35.618935790275103</v>
+      </c>
+      <c r="P108" s="24">
+        <f t="shared" si="15"/>
+        <v>3.56189357902751E-2</v>
+      </c>
+      <c r="Q108" s="24">
         <f t="shared" si="16"/>
-        <v>2891.9726763488393</v>
-      </c>
-      <c r="L108" s="6">
+        <v>3.5603869561762723E-2</v>
+      </c>
+      <c r="R108" s="56">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S108" s="56">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T108" s="3">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="U108" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V108" s="12">
         <f t="shared" si="17"/>
-        <v>0.37861491628614918</v>
-      </c>
-      <c r="M108" s="12">
-        <f t="shared" si="7"/>
-        <v>1584.04533528655</v>
-      </c>
-      <c r="N108" s="12">
-        <f t="shared" si="8"/>
-        <v>4746.3229954549288</v>
-      </c>
-      <c r="O108" s="2">
+        <v>6162.277660168379</v>
+      </c>
+      <c r="W108" s="12">
         <f t="shared" si="18"/>
-        <v>35.618935790275103</v>
-      </c>
-      <c r="P108" s="24">
-        <f t="shared" si="9"/>
-        <v>3.56189357902751E-2</v>
-      </c>
-      <c r="Q108" s="24">
-        <f t="shared" si="10"/>
-        <v>3.5603869561762723E-2</v>
-      </c>
-      <c r="R108" s="56">
+        <v>1476.0180116353895</v>
+      </c>
+      <c r="X108" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S108" s="56">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T108" s="3">
-        <f t="shared" si="21"/>
-        <v>2500</v>
-      </c>
-      <c r="U108" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V108" s="12">
-        <f t="shared" si="11"/>
-        <v>6162.277660168379</v>
-      </c>
-      <c r="W108" s="12">
-        <f t="shared" si="12"/>
-        <v>1476.0180116353895</v>
-      </c>
-      <c r="X108" s="6">
-        <f t="shared" si="13"/>
         <v>0.193239182542253</v>
       </c>
       <c r="Y108" s="12"/>
       <c r="Z108" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2891.9726763488397</v>
       </c>
       <c r="AA108" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4820.9788115736392</v>
       </c>
       <c r="AB108" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC108" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD108" s="3">
@@ -11522,19 +11523,19 @@
         <v>-4000</v>
       </c>
       <c r="AI108" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1476.0180116353895</v>
       </c>
       <c r="AJ108" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-6847.4297790719575</v>
       </c>
       <c r="AK108" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AL108" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AM108" s="3">
@@ -11560,111 +11561,111 @@
     </row>
     <row r="109" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B109" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C109">
         <v>9</v>
       </c>
       <c r="D109" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4216.9650342858222</v>
       </c>
       <c r="E109" s="2">
-        <f>D109/$C$54</f>
+        <f t="shared" si="7"/>
         <v>189.91409251423201</v>
       </c>
       <c r="F109" s="3">
-        <f>E109*$C$55</f>
+        <f t="shared" si="8"/>
         <v>6201.4191680673857</v>
       </c>
       <c r="G109" s="3">
-        <f>E109*$C$74</f>
+        <f t="shared" si="9"/>
         <v>3984.4118154832945</v>
       </c>
       <c r="H109" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10185.830983550681</v>
       </c>
       <c r="I109" s="12">
-        <f>E109*$C$56</f>
+        <f t="shared" si="11"/>
         <v>1984.4541337815635</v>
       </c>
       <c r="J109" s="12">
-        <f>E109*$C$75</f>
+        <f t="shared" si="12"/>
         <v>1872.0534113603419</v>
       </c>
       <c r="K109" s="12">
+        <f t="shared" si="22"/>
+        <v>3856.5075451419052</v>
+      </c>
+      <c r="L109" s="6">
+        <f t="shared" si="23"/>
+        <v>0.37861491628614913</v>
+      </c>
+      <c r="M109" s="12">
+        <f t="shared" si="13"/>
+        <v>2112.3584041229524</v>
+      </c>
+      <c r="N109" s="12">
+        <f t="shared" si="14"/>
+        <v>6329.3234384087746</v>
+      </c>
+      <c r="O109" s="2">
+        <f t="shared" si="24"/>
+        <v>47.498614267181125</v>
+      </c>
+      <c r="P109" s="24">
+        <f t="shared" si="15"/>
+        <v>4.7498614267181126E-2</v>
+      </c>
+      <c r="Q109" s="24">
         <f t="shared" si="16"/>
-        <v>3856.5075451419052</v>
-      </c>
-      <c r="L109" s="6">
+        <v>4.7478523128558006E-2</v>
+      </c>
+      <c r="R109" s="56">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S109" s="56">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T109" s="3">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="U109" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V109" s="12">
         <f t="shared" si="17"/>
-        <v>0.37861491628614913</v>
-      </c>
-      <c r="M109" s="12">
-        <f t="shared" si="7"/>
-        <v>2112.3584041229524</v>
-      </c>
-      <c r="N109" s="12">
-        <f t="shared" si="8"/>
-        <v>6329.3234384087746</v>
-      </c>
-      <c r="O109" s="2">
+        <v>7216.9650342858222</v>
+      </c>
+      <c r="W109" s="12">
         <f t="shared" si="18"/>
-        <v>47.498614267181125</v>
-      </c>
-      <c r="P109" s="24">
-        <f t="shared" si="9"/>
-        <v>4.7498614267181126E-2</v>
-      </c>
-      <c r="Q109" s="24">
-        <f t="shared" si="10"/>
-        <v>4.7478523128558006E-2</v>
-      </c>
-      <c r="R109" s="56">
+        <v>2968.8659492648585</v>
+      </c>
+      <c r="X109" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S109" s="56">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T109" s="3">
-        <f t="shared" si="21"/>
-        <v>2500</v>
-      </c>
-      <c r="U109" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V109" s="12">
-        <f t="shared" si="11"/>
-        <v>7216.9650342858222</v>
-      </c>
-      <c r="W109" s="12">
-        <f t="shared" si="12"/>
-        <v>2968.8659492648585</v>
-      </c>
-      <c r="X109" s="6">
-        <f t="shared" si="13"/>
         <v>0.29147017597870456</v>
       </c>
       <c r="Y109" s="12"/>
       <c r="Z109" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3856.5075451419061</v>
       </c>
       <c r="AA109" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>8677.4863567155444</v>
       </c>
       <c r="AB109" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC109" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD109" s="3">
@@ -11688,19 +11689,19 @@
         <v>-4000</v>
       </c>
       <c r="AI109" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2968.8659492648585</v>
       </c>
       <c r="AJ109" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-3878.563829807099</v>
       </c>
       <c r="AK109" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AL109" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AM109" s="3">
@@ -11726,111 +11727,111 @@
     </row>
     <row r="110" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B110" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C110">
         <v>10</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5623.4132519034902</v>
       </c>
       <c r="E110" s="2">
-        <f>D110/$C$54</f>
+        <f t="shared" si="7"/>
         <v>253.25451263757665</v>
       </c>
       <c r="F110" s="3">
-        <f>E110*$C$55</f>
+        <f t="shared" si="8"/>
         <v>8269.7253704463092</v>
       </c>
       <c r="G110" s="3">
-        <f>E110*$C$74</f>
+        <f t="shared" si="9"/>
         <v>5313.2985505117522</v>
       </c>
       <c r="H110" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>13583.023920958061</v>
       </c>
       <c r="I110" s="12">
-        <f>E110*$C$56</f>
+        <f t="shared" si="11"/>
         <v>2646.312118542819</v>
       </c>
       <c r="J110" s="12">
-        <f>E110*$C$75</f>
+        <f t="shared" si="12"/>
         <v>2496.4233462034795</v>
       </c>
       <c r="K110" s="12">
+        <f t="shared" si="22"/>
+        <v>5142.735464746298</v>
+      </c>
+      <c r="L110" s="6">
+        <f t="shared" si="23"/>
+        <v>0.37861491628614918</v>
+      </c>
+      <c r="M110" s="12">
+        <f t="shared" si="13"/>
+        <v>2816.8752043082727</v>
+      </c>
+      <c r="N110" s="12">
+        <f t="shared" si="14"/>
+        <v>8440.2884562117633</v>
+      </c>
+      <c r="O110" s="2">
+        <f t="shared" si="24"/>
+        <v>63.340420123344643</v>
+      </c>
+      <c r="P110" s="24">
+        <f t="shared" si="15"/>
+        <v>6.3340420123344648E-2</v>
+      </c>
+      <c r="Q110" s="24">
         <f t="shared" si="16"/>
-        <v>5142.735464746298</v>
-      </c>
-      <c r="L110" s="6">
+        <v>6.3313628159394161E-2</v>
+      </c>
+      <c r="R110" s="56">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S110" s="56">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T110" s="3">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="U110" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V110" s="12">
         <f t="shared" si="17"/>
-        <v>0.37861491628614918</v>
-      </c>
-      <c r="M110" s="12">
-        <f t="shared" si="7"/>
-        <v>2816.8752043082727</v>
-      </c>
-      <c r="N110" s="12">
-        <f t="shared" si="8"/>
-        <v>8440.2884562117633</v>
-      </c>
-      <c r="O110" s="2">
+        <v>8623.4132519034902</v>
+      </c>
+      <c r="W110" s="12">
         <f t="shared" si="18"/>
-        <v>63.340420123344643</v>
-      </c>
-      <c r="P110" s="24">
-        <f t="shared" si="9"/>
-        <v>6.3340420123344648E-2</v>
-      </c>
-      <c r="Q110" s="24">
-        <f t="shared" si="10"/>
-        <v>6.3313628159394161E-2</v>
-      </c>
-      <c r="R110" s="56">
+        <v>4959.6106690545712</v>
+      </c>
+      <c r="X110" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S110" s="56">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T110" s="3">
-        <f t="shared" si="21"/>
-        <v>2500</v>
-      </c>
-      <c r="U110" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V110" s="12">
-        <f t="shared" si="11"/>
-        <v>8623.4132519034902</v>
-      </c>
-      <c r="W110" s="12">
-        <f t="shared" si="12"/>
-        <v>4959.6106690545712</v>
-      </c>
-      <c r="X110" s="6">
-        <f t="shared" si="13"/>
         <v>0.36513302913367401</v>
       </c>
       <c r="Y110" s="12"/>
       <c r="Z110" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5142.735464746298</v>
       </c>
       <c r="AA110" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>13820.221821461842</v>
       </c>
       <c r="AB110" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC110" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD110" s="3">
@@ -11854,19 +11855,19 @@
         <v>-4000</v>
       </c>
       <c r="AI110" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4959.6106690545712</v>
       </c>
       <c r="AJ110" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1081.0468392474722</v>
       </c>
       <c r="AK110" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AL110" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>payback</v>
       </c>
       <c r="AM110" s="3">
@@ -11892,111 +11893,111 @@
     </row>
     <row r="111" spans="2:43" x14ac:dyDescent="0.45">
       <c r="B111" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C111">
         <v>11</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7498.9420933245574</v>
       </c>
       <c r="E111" s="2">
-        <f>D111/$C$54</f>
+        <f t="shared" si="7"/>
         <v>337.72032039428586</v>
       </c>
       <c r="F111" s="3">
-        <f>E111*$C$55</f>
+        <f t="shared" si="8"/>
         <v>11027.856019594938</v>
       </c>
       <c r="G111" s="3">
-        <f>E111*$C$74</f>
+        <f t="shared" si="9"/>
         <v>7085.3974925897455</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18113.253512184681</v>
       </c>
       <c r="I111" s="12">
-        <f>E111*$C$56</f>
+        <f t="shared" si="11"/>
         <v>3528.9139262703798</v>
       </c>
       <c r="J111" s="12">
-        <f>E111*$C$75</f>
+        <f t="shared" si="12"/>
         <v>3329.0340359152215</v>
       </c>
       <c r="K111" s="12">
+        <f t="shared" si="22"/>
+        <v>6857.9479621856008</v>
+      </c>
+      <c r="L111" s="6">
+        <f t="shared" si="23"/>
+        <v>0.37861491628614918</v>
+      </c>
+      <c r="M111" s="12">
+        <f t="shared" si="13"/>
+        <v>3756.3634566745241</v>
+      </c>
+      <c r="N111" s="12">
+        <f t="shared" si="14"/>
+        <v>11255.305549999081</v>
+      </c>
+      <c r="O111" s="2">
+        <f t="shared" si="24"/>
+        <v>84.465807756709211</v>
+      </c>
+      <c r="P111" s="24">
+        <f t="shared" si="15"/>
+        <v>8.4465807756709199E-2</v>
+      </c>
+      <c r="Q111" s="24">
         <f t="shared" si="16"/>
-        <v>6857.9479621856008</v>
-      </c>
-      <c r="L111" s="6">
+        <v>8.4430080098571461E-2</v>
+      </c>
+      <c r="R111" s="56">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S111" s="56">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T111" s="3">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="U111" s="3">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V111" s="12">
         <f t="shared" si="17"/>
-        <v>0.37861491628614918</v>
-      </c>
-      <c r="M111" s="12">
-        <f t="shared" si="7"/>
-        <v>3756.3634566745241</v>
-      </c>
-      <c r="N111" s="12">
-        <f t="shared" si="8"/>
-        <v>11255.305549999081</v>
-      </c>
-      <c r="O111" s="2">
+        <v>10498.942093324556</v>
+      </c>
+      <c r="W111" s="12">
         <f t="shared" si="18"/>
-        <v>84.465807756709211</v>
-      </c>
-      <c r="P111" s="24">
-        <f t="shared" si="9"/>
-        <v>8.4465807756709199E-2</v>
-      </c>
-      <c r="Q111" s="24">
-        <f t="shared" si="10"/>
-        <v>8.4430080098571461E-2</v>
-      </c>
-      <c r="R111" s="56">
+        <v>7614.3114188601248</v>
+      </c>
+      <c r="X111" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S111" s="56">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T111" s="3">
-        <f t="shared" si="21"/>
-        <v>2500</v>
-      </c>
-      <c r="U111" s="3">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V111" s="12">
-        <f t="shared" si="11"/>
-        <v>10498.942093324556</v>
-      </c>
-      <c r="W111" s="12">
-        <f t="shared" si="12"/>
-        <v>7614.3114188601248</v>
-      </c>
-      <c r="X111" s="6">
-        <f t="shared" si="13"/>
         <v>0.42037237615749273</v>
       </c>
       <c r="Y111" s="12"/>
       <c r="Z111" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6857.9479621856008</v>
       </c>
       <c r="AA111" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>20678.169783647441</v>
       </c>
       <c r="AB111" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC111" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD111" s="3">
@@ -12020,19 +12021,19 @@
         <v>-4000</v>
       </c>
       <c r="AI111" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>7614.3114188601248</v>
       </c>
       <c r="AJ111" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8695.3582581075971</v>
       </c>
       <c r="AK111" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AL111" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AM111" s="3">
@@ -12058,111 +12059,111 @@
     </row>
     <row r="112" spans="2:43" s="45" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B112" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>last month of growth</v>
       </c>
       <c r="C112" s="45">
         <v>12</v>
       </c>
       <c r="D112" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9999.9999999999982</v>
       </c>
       <c r="E112" s="47">
-        <f>D112/$C$54</f>
+        <f t="shared" si="7"/>
         <v>450.35728532284475</v>
       </c>
       <c r="F112" s="46">
-        <f>E112*$C$55</f>
+        <f t="shared" si="8"/>
         <v>14705.882352941175</v>
       </c>
       <c r="G112" s="46">
-        <f>E112*$C$74</f>
+        <f t="shared" si="9"/>
         <v>9448.5294117647027</v>
       </c>
       <c r="H112" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>24154.411764705877</v>
       </c>
       <c r="I112" s="48">
-        <f>E112*$C$56</f>
+        <f t="shared" si="11"/>
         <v>4705.8823529411757</v>
       </c>
       <c r="J112" s="48">
-        <f>E112*$C$75</f>
+        <f t="shared" si="12"/>
         <v>4439.3382352941171</v>
       </c>
       <c r="K112" s="48">
+        <f t="shared" si="22"/>
+        <v>9145.2205882352937</v>
+      </c>
+      <c r="L112" s="49">
+        <f t="shared" si="23"/>
+        <v>0.37861491628614924</v>
+      </c>
+      <c r="M112" s="48">
+        <f t="shared" si="13"/>
+        <v>5009.1911764705856</v>
+      </c>
+      <c r="N112" s="48">
+        <f t="shared" si="14"/>
+        <v>15009.191176470584</v>
+      </c>
+      <c r="O112" s="47">
+        <f t="shared" si="24"/>
+        <v>112.63696492855888</v>
+      </c>
+      <c r="P112" s="50">
+        <f t="shared" si="15"/>
+        <v>0.11263696492855889</v>
+      </c>
+      <c r="Q112" s="50">
         <f t="shared" si="16"/>
-        <v>9145.2205882352937</v>
-      </c>
-      <c r="L112" s="49">
+        <v>0.11258932133071119</v>
+      </c>
+      <c r="R112" s="57">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S112" s="57">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="T112" s="46">
+        <f t="shared" si="27"/>
+        <v>2500</v>
+      </c>
+      <c r="U112" s="46">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="V112" s="48">
         <f t="shared" si="17"/>
-        <v>0.37861491628614924</v>
-      </c>
-      <c r="M112" s="48">
-        <f t="shared" si="7"/>
-        <v>5009.1911764705856</v>
-      </c>
-      <c r="N112" s="48">
-        <f t="shared" si="8"/>
-        <v>15009.191176470584</v>
-      </c>
-      <c r="O112" s="47">
+        <v>12999.999999999998</v>
+      </c>
+      <c r="W112" s="48">
         <f t="shared" si="18"/>
-        <v>112.63696492855888</v>
-      </c>
-      <c r="P112" s="50">
-        <f t="shared" si="9"/>
-        <v>0.11263696492855889</v>
-      </c>
-      <c r="Q112" s="50">
-        <f t="shared" si="10"/>
-        <v>0.11258932133071119</v>
-      </c>
-      <c r="R112" s="57">
+        <v>11154.411764705879</v>
+      </c>
+      <c r="X112" s="49">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S112" s="57">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T112" s="46">
-        <f t="shared" si="21"/>
-        <v>2500</v>
-      </c>
-      <c r="U112" s="46">
-        <f t="shared" si="22"/>
-        <v>500</v>
-      </c>
-      <c r="V112" s="48">
-        <f t="shared" si="11"/>
-        <v>12999.999999999998</v>
-      </c>
-      <c r="W112" s="48">
-        <f t="shared" si="12"/>
-        <v>11154.411764705879</v>
-      </c>
-      <c r="X112" s="49">
-        <f t="shared" si="13"/>
         <v>0.46179604261796037</v>
       </c>
       <c r="Y112" s="48"/>
       <c r="Z112" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>9145.2205882352937</v>
       </c>
       <c r="AA112" s="48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>29823.390371882735</v>
       </c>
       <c r="AB112" s="45" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC112" s="45" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD112" s="46">
@@ -12186,19 +12187,19 @@
         <v>-4000</v>
       </c>
       <c r="AI112" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>11154.411764705879</v>
       </c>
       <c r="AJ112" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>19849.770022813478</v>
       </c>
       <c r="AK112" s="48" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AL112" s="45" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AM112" s="46">
